--- a/TestData/DotFashion_TestData.xlsx
+++ b/TestData/DotFashion_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garvi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAF6E2-BB1C-470A-9C80-0F07395626AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9FB26-B44E-4A12-BEC6-FB12B8EDC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecipePage1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="BlogPage" sheetId="4" r:id="rId4"/>
     <sheet name="BlogPage1" sheetId="5" r:id="rId5"/>
     <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
-    <sheet name="CategoryPage" sheetId="7" r:id="rId7"/>
-    <sheet name="MyAccount" sheetId="8" r:id="rId8"/>
-    <sheet name="ExperienceBuilder" sheetId="9" r:id="rId9"/>
-    <sheet name="HomePage" sheetId="10" r:id="rId10"/>
+    <sheet name="DigitalProduct" sheetId="11" r:id="rId7"/>
+    <sheet name="CheckOutPage" sheetId="12" r:id="rId8"/>
+    <sheet name="CategoryPage" sheetId="7" r:id="rId9"/>
+    <sheet name="MyAccount" sheetId="8" r:id="rId10"/>
+    <sheet name="ExperienceBuilder" sheetId="9" r:id="rId11"/>
+    <sheet name="HomePage" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
   <si>
     <t>Page</t>
   </si>
@@ -150,15 +152,9 @@
     <t>Product</t>
   </si>
   <si>
-    <t>https://uidotfashion.sangria.tech/product/Cozy-Sherpa-Jacket?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkwOTI4MTIxNDc2Ng%3D%3D</t>
-  </si>
-  <si>
     <t>https://uidotfashion.sangria.tech/product/Pelli-Hip-Shirt-Jacket?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkwOTg5MzE4OTkzNA%3D%3D</t>
   </si>
   <si>
-    <t>https://uidotfashion.sangria.tech/product/Carrot-Pant?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkzMzczODA3MDMxOA%3D%3D</t>
-  </si>
-  <si>
     <t>https://uidotfashion.sangria.tech/product/Hi-Rise-Short?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg2MjU2ODYyODUyNg%3D%3D</t>
   </si>
   <si>
@@ -199,6 +195,45 @@
   </si>
   <si>
     <t>https://uidotfashion.sangria.tech/</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/product/The-31-Day-Tabata-Body-Transformation-Challenge?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkzMzk0MTI5NzQ1NA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/product/Get-Inspired?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg3NDYyMjMzNzMyNg%3D%3D</t>
+  </si>
+  <si>
+    <t>CheckoutPage</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/checkout</t>
+  </si>
+  <si>
+    <t>Tips To Dress Comfortably While Practicing Yoga</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/blog/tips-to-dress-comfortably-while-practicing-yoga</t>
+  </si>
+  <si>
+    <t>/12 Apr 2023/</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/recipe/king-arthur-s-detroit-style-pizza</t>
+  </si>
+  <si>
+    <t>King Arthur's Detroit-Style Pizza</t>
+  </si>
+  <si>
+    <t>/04 Apr 2023/</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/product/Free-Lounge-Sweatpant?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkzMzgwMjQ1OTQzOA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/100-Organic-Cold-Pressed-Rose-Hip-Seed-Regenerative-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkxMDA2MTA2MDQwNw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -273,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -290,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -311,6 +345,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,7 +792,7 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -766,10 +806,108 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7E63E-8C80-485D-B069-A13B90583476}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{93B2566C-67E3-4200-AC6B-FA79E81C61AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D870B730-9ADD-4710-B044-3A77242AEA86}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408DC48-5344-432E-8B86-F194D9E29FBB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
@@ -794,16 +932,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>51</v>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -819,13 +957,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="21.6328125" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -851,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,16 +1002,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +1058,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -979,13 +1119,13 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1008,7 +1148,7 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1025,13 +1165,13 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1047,19 +1187,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B965A0D-1E94-4EC8-BBC5-8B9AB6ACD3FA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" customWidth="1"/>
     <col min="5" max="5" width="42.1796875" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" customWidth="1"/>
     <col min="7" max="7" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1092,17 +1232,17 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
+      <c r="D2" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1115,98 +1255,220 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="12"/>
-    <col min="4" max="4" width="47.36328125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="22.08984375" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="11"/>
+    <col min="4" max="4" width="47.36328125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{06DC5011-018C-4D63-906F-90206B37DFDB}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{91CCEDE1-0061-4271-8FEF-25B86D30D635}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{BA2E9326-097E-41E6-99FD-5AC808069761}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{CFF47E78-2B3E-4164-91F3-A219608BDBA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B9BD7-865B-4852-978E-1F826A277730}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="56.90625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{26E73519-3A46-4A34-91B2-E831B136ED4A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E26A96DA-C477-423E-BF51-B0ADE2114A39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02083E-1654-418F-8102-B92BAFBE7AB7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C8347981-6703-47CE-812B-C2B2F67AD98E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BA7EF-F449-4B2B-9E06-3CA6F3C81A66}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,142 +1495,44 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7E63E-8C80-485D-B069-A13B90583476}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{93B2566C-67E3-4200-AC6B-FA79E81C61AA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D870B730-9ADD-4710-B044-3A77242AEA86}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DotFashion_TestData.xlsx
+++ b/TestData/DotFashion_TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garvi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B9FB26-B44E-4A12-BEC6-FB12B8EDC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7FB7F2B-B9F8-46CA-B4D2-AFA0614551CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecipePage1" sheetId="1" r:id="rId1"/>
@@ -19,33 +14,27 @@
     <sheet name="BlogPage" sheetId="4" r:id="rId4"/>
     <sheet name="BlogPage1" sheetId="5" r:id="rId5"/>
     <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
-    <sheet name="DigitalProduct" sheetId="11" r:id="rId7"/>
-    <sheet name="CheckOutPage" sheetId="12" r:id="rId8"/>
-    <sheet name="CategoryPage" sheetId="7" r:id="rId9"/>
-    <sheet name="MyAccount" sheetId="8" r:id="rId10"/>
-    <sheet name="ExperienceBuilder" sheetId="9" r:id="rId11"/>
-    <sheet name="HomePage" sheetId="10" r:id="rId12"/>
+    <sheet name="ProductPage1" sheetId="13" r:id="rId7"/>
+    <sheet name="DigitalProduct" sheetId="11" r:id="rId8"/>
+    <sheet name="CheckOutPage" sheetId="12" r:id="rId9"/>
+    <sheet name="CategoryPage" sheetId="7" r:id="rId10"/>
+    <sheet name="MyAccount" sheetId="8" r:id="rId11"/>
+    <sheet name="ExperienceBuilder" sheetId="9" r:id="rId12"/>
+    <sheet name="HomePage" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t>Page</t>
   </si>
@@ -152,9 +141,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>https://uidotfashion.sangria.tech/product/Pelli-Hip-Shirt-Jacket?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkwOTg5MzE4OTkzNA%3D%3D</t>
-  </si>
-  <si>
     <t>https://uidotfashion.sangria.tech/product/Hi-Rise-Short?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg2MjU2ODYyODUyNg%3D%3D</t>
   </si>
   <si>
@@ -230,10 +216,22 @@
     <t>/04 Apr 2023/</t>
   </si>
   <si>
-    <t>https://uidotfashion.sangria.tech/product/Free-Lounge-Sweatpant?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkzMzgwMjQ1OTQzOA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://uidotbeauty.sangria.tech/product/100-Organic-Cold-Pressed-Rose-Hip-Seed-Regenerative-Oil?varientId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkxMDA2MTA2MDQwNw%3D%3D</t>
+    <t>https://uidotbeauty.sangria.tech/product/BLACK-TEA-ANTI-AGING-CERAMIDE-MOISTURIZER?variantId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDgyMTk1Njk1MjM3NQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/product/Ponto-Performance-Pant?variantId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDkzNjM1MjYyOTAzOA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Skin-Foundation-Stick?variantId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NTMwNDc3MTc3MjcyNw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/product/DKNY-Women-Multicoloured-Printed-High-Waist-Leggings-With-Pockets?variantId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NTIzMTI3NzkzMjg0Ng%3D%3D</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/product/Anti-Aging-Facial-Products-Course?variantId=Z2lkOi8vc2hvcGlmeS9Qcm9kdWN0VmFyaWFudC80NDg4NDg0NzU5MTczNQ%3D%3D</t>
+  </si>
+  <si>
+    <t>ChromeMobile</t>
   </si>
 </sst>
 </file>
@@ -806,6 +804,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BA7EF-F449-4B2B-9E06-3CA6F3C81A66}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="42.26953125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7E63E-8C80-485D-B069-A13B90583476}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -834,16 +909,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D870B730-9ADD-4710-B044-3A77242AEA86}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -886,16 +961,16 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -903,12 +978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408DC48-5344-432E-8B86-F194D9E29FBB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,22 +1007,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{65621027-96C9-4376-9C90-350A838A20BB}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68C07F0-529A-419A-84E6-E455608E79BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1002,16 +1089,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B965A0D-1E94-4EC8-BBC5-8B9AB6ACD3FA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1233,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1342,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -1291,10 +1378,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1305,10 +1392,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1333,26 +1420,86 @@
         <v>9</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{06DC5011-018C-4D63-906F-90206B37DFDB}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{91CCEDE1-0061-4271-8FEF-25B86D30D635}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{BA2E9326-097E-41E6-99FD-5AC808069761}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{CFF47E78-2B3E-4164-91F3-A219608BDBA2}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{CFF47E78-2B3E-4164-91F3-A219608BDBA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B9BD7-865B-4852-978E-1F826A277730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946832F2-3B11-4E49-BD31-1E40571296DE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B9BD7-865B-4852-978E-1F826A277730}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1399,7 +1546,21 @@
         <v>9</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1411,12 +1572,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02083E-1654-418F-8102-B92BAFBE7AB7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1429,7 +1590,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -1443,16 +1604,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1461,81 +1622,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BA7EF-F449-4B2B-9E06-3CA6F3C81A66}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="42.26953125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/DotFashion_TestData.xlsx
+++ b/TestData/DotFashion_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7FB7F2B-B9F8-46CA-B4D2-AFA0614551CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3341C376-0AEA-45D9-87A2-42C67F140F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecipePage1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K16"/>
+  <oleSize ref="A1:H22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
   <si>
     <t>Page</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Sangria Command Center</t>
   </si>
   <si>
-    <t>https://command-center.sangria.tech/login</t>
-  </si>
-  <si>
     <t>Home Page</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>ChromeMobile</t>
+  </si>
+  <si>
+    <t>https://csdotbeauty.sangria.tech/login</t>
+  </si>
+  <si>
+    <t>Edge</t>
   </si>
 </sst>
 </file>
@@ -671,18 +674,18 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -728,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -751,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -774,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,15 +814,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="42.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -847,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -861,7 +864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -888,12 +891,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -933,19 +936,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D870B730-9ADD-4710-B044-3A77242AEA86}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -967,10 +970,10 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -982,16 +985,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408DC48-5344-432E-8B86-F194D9E29FBB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,18 +1008,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1047,15 +1050,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,16 +1092,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1114,14 +1117,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1165,15 +1168,15 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
-    <col min="5" max="5" width="43.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1278,15 +1281,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="48.1796875" customWidth="1"/>
-    <col min="5" max="5" width="42.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="48.21875" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,16 +1323,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1345,15 +1348,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="11"/>
-    <col min="4" max="4" width="47.36328125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="22.109375" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="11"/>
+    <col min="4" max="4" width="47.33203125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -1378,10 +1381,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1392,10 +1395,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1406,10 +1409,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1439,15 +1442,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -1472,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1502,12 +1505,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="56.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -1532,10 +1535,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -1546,10 +1549,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1580,17 +1583,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -1602,18 +1605,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DotFashion_TestData.xlsx
+++ b/TestData/DotFashion_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3341C376-0AEA-45D9-87A2-42C67F140F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{681100CE-96E0-446B-BB7D-004FA6A4B385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecipePage1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H22"/>
+  <oleSize ref="A1:M32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
   <si>
     <t>Page</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Edge</t>
+  </si>
+  <si>
+    <t>dotfashion</t>
+  </si>
+  <si>
+    <t>Safari</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D870B730-9ADD-4710-B044-3A77242AEA86}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -985,12 +991,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408DC48-5344-432E-8B86-F194D9E29FBB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,10 +1020,10 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>47</v>
@@ -1024,7 +1031,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{65621027-96C9-4376-9C90-350A838A20BB}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B171FFEE-CEB8-404C-BB18-6BE9190BE21E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1113,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087AA133-C0A4-4C37-8A87-DF014732084A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1278,7 +1285,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1446,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
